--- a/Document/Excel/UserRights .xlsx
+++ b/Document/Excel/UserRights .xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workcode\unity\framework\Document\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workcode\myself\framework\Document\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="504" windowWidth="35844" windowHeight="20304"/>
+    <workbookView xWindow="0" yWindow="510" windowWidth="35850" windowHeight="20310"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -258,7 +258,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -269,6 +269,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -575,20 +576,20 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" customWidth="1"/>
-    <col min="5" max="5" width="39.33203125" customWidth="1"/>
-    <col min="8" max="8" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="39.375" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -596,15 +597,21 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>46</v>
       </c>
@@ -615,7 +622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -626,7 +633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -637,7 +644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -648,7 +655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -659,7 +666,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -670,7 +677,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -681,7 +688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -692,7 +699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -703,7 +710,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -714,7 +721,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -725,7 +732,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
@@ -736,7 +743,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -747,7 +754,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>35</v>
       </c>
@@ -758,7 +765,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
@@ -769,7 +776,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
@@ -780,7 +787,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>42</v>
       </c>
